--- a/biology/Biologie cellulaire et moléculaire/Oléocorps/Oléocorps.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Oléocorps/Oléocorps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ol%C3%A9ocorps</t>
+          <t>Oléocorps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les hépatiques (embranchement des Marchantiophyta), les oléocorps sont de petits corpuscules oléagineux visibles dans les cellules. Ceux-ci peuvent être lisses, granuleux… Ils sont translucides, très rarement colorés comme chez Calypogeia azurea (bleu roi). Leur nombre varie entre 1 et environ 50. Toutefois, certains genres d'hépatiques en sont dépourvus. Leurs caractéristiques (présence/absence, nombre, dimension, aspect…) constituent souvent un des critères de détermination des espèces. Leur présence dans les cellules rend certaines espèces aromatiques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les hépatiques (embranchement des Marchantiophyta), les oléocorps sont de petits corpuscules oléagineux visibles dans les cellules. Ceux-ci peuvent être lisses, granuleux… Ils sont translucides, très rarement colorés comme chez Calypogeia azurea (bleu roi). Leur nombre varie entre 1 et environ 50. Toutefois, certains genres d'hépatiques en sont dépourvus. Leurs caractéristiques (présence/absence, nombre, dimension, aspect…) constituent souvent un des critères de détermination des espèces. Leur présence dans les cellules rend certaines espèces aromatiques.
 </t>
         </is>
       </c>
